--- a/data_13.xlsx
+++ b/data_13.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>7.78750971390117</v>
+        <v>7.792646042809134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09013478212434473</v>
+        <v>0.0907123679885002</v>
       </c>
       <c r="D2" t="n">
-        <v>5.856499702640731</v>
+        <v>5.8672538551788795</v>
       </c>
       <c r="E2" t="n">
-        <v>0.23132371323929174</v>
+        <v>0.2317738412768541</v>
       </c>
       <c r="F2" t="n">
         <v>0.04954500978079049</v>
@@ -132,7 +132,7 @@
         <v>10.798619364511353</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2585044572068714</v>
+        <v>0.25834035760467705</v>
       </c>
       <c r="D3" t="n">
         <v>9.207641545221529</v>
@@ -152,7 +152,7 @@
         <v>11.439618146793169</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6513607606687839</v>
+        <v>0.6509472744068228</v>
       </c>
       <c r="D4" t="n">
         <v>10.854461319848204</v>
